--- a/trunk/Layout das Tabelas/Apuração Especialização.xlsx
+++ b/trunk/Layout das Tabelas/Apuração Especialização.xlsx
@@ -16,13 +16,14 @@
     <sheet name="GRUPO_CURSO" sheetId="7" r:id="rId7"/>
     <sheet name="VALOR_HORA_AULA" sheetId="8" r:id="rId8"/>
     <sheet name="CAMPUS" sheetId="9" r:id="rId9"/>
+    <sheet name="CONSOLIDACAO_HORISTA" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="663">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1828,12 +1829,207 @@
   <si>
     <t>Valor de Hora aula pago ao Professor.</t>
   </si>
+  <si>
+    <t>DT_INICIO_ATUACAO</t>
+  </si>
+  <si>
+    <t>DT_FIM_ATUACAO</t>
+  </si>
+  <si>
+    <t>COD_CURSO_EXTENSAO</t>
+  </si>
+  <si>
+    <t>NUMBER(12.2)</t>
+  </si>
+  <si>
+    <t>NUMBER(6.2)</t>
+  </si>
+  <si>
+    <t>NUMBER(8.2)</t>
+  </si>
+  <si>
+    <t>COD_TIPO_RUBRICA</t>
+  </si>
+  <si>
+    <t>NUM_SEQ_ATUACAO</t>
+  </si>
+  <si>
+    <t>IND_PROPORCIONAL</t>
+  </si>
+  <si>
+    <t>COD_TIPO_ATUACAO</t>
+  </si>
+  <si>
+    <t>IND_CR_APOIO</t>
+  </si>
+  <si>
+    <t>IND_FIXO_VARIAVEL</t>
+  </si>
+  <si>
+    <t>IND_AUTORIZACAO</t>
+  </si>
+  <si>
+    <t>NOM_PROCESSO</t>
+  </si>
+  <si>
+    <t>QTD_HORAS_TRABALHADAS</t>
+  </si>
+  <si>
+    <t>VALOR_MOVIMENTO</t>
+  </si>
+  <si>
+    <t>QTDE_HORA_MOVIMENTO</t>
+  </si>
+  <si>
+    <t>COD_VERBA_RH</t>
+  </si>
+  <si>
+    <t>COD_CENTRO_RESULTADO</t>
+  </si>
+  <si>
+    <t>IND_SITUACAO_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>FLAG_RETROATIVO</t>
+  </si>
+  <si>
+    <t>IND_APTO_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>DT_ALOCACAO_DIA</t>
+  </si>
+  <si>
+    <t>IND_SUBSTITUICAO</t>
+  </si>
+  <si>
+    <t>IND_CURSO_EXTENSAO</t>
+  </si>
+  <si>
+    <t>DT_GERACAO</t>
+  </si>
+  <si>
+    <t>COD_TURMA_EXTENSAO</t>
+  </si>
+  <si>
+    <t>NUMBER(12)</t>
+  </si>
+  <si>
+    <t>TABELA</t>
+  </si>
+  <si>
+    <t>IND_PAGAMENTO_ALOCACAO</t>
+  </si>
+  <si>
+    <t>VAL_A_PAGAR</t>
+  </si>
+  <si>
+    <t>COD_SITUACAO_TURMA_EXTENSAO</t>
+  </si>
+  <si>
+    <t>DT_MES_ANO</t>
+  </si>
+  <si>
+    <t>QTD_VAGAS_PREENCHIDAS</t>
+  </si>
+  <si>
+    <t>NUM_SEQ_FALTA</t>
+  </si>
+  <si>
+    <t>IND_FALTA</t>
+  </si>
+  <si>
+    <t>IND_FALTA_RETROATIVA</t>
+  </si>
+  <si>
+    <t>IND_ABONO_RETROATIVO</t>
+  </si>
+  <si>
+    <t>IND_PAGAR_FALTA_RET</t>
+  </si>
+  <si>
+    <t>CONTRATO_PROFESSOR</t>
+  </si>
+  <si>
+    <t>PK_TURMA</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>IND_ABONO</t>
+  </si>
+  <si>
+    <t>IND_PAGAR_ABONO_RET</t>
+  </si>
+  <si>
+    <t>IND_TIPO_AULA</t>
+  </si>
+  <si>
+    <t>IND_REPOSICAO</t>
+  </si>
+  <si>
+    <t>IND_GERA_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>V_OCORRENCIA</t>
+  </si>
+  <si>
+    <t>DIA_SEMANA</t>
+  </si>
+  <si>
+    <t>DT_INI</t>
+  </si>
+  <si>
+    <t>DT_FIM</t>
+  </si>
+  <si>
+    <t>HORA_INI</t>
+  </si>
+  <si>
+    <t>HORA_FIM</t>
+  </si>
+  <si>
+    <t>NUM_SEQ_COMPOSICAO</t>
+  </si>
+  <si>
+    <t>VAL_COMPOSICAO</t>
+  </si>
+  <si>
+    <t>ID_TURNO</t>
+  </si>
+  <si>
+    <t>IND_MODALIDADE</t>
+  </si>
+  <si>
+    <t>DT_INI_VIGENCIA</t>
+  </si>
+  <si>
+    <t>DT_FIM_VIGENCIA</t>
+  </si>
+  <si>
+    <t>IND_PAGAMENTO_RETROATIVIDADE</t>
+  </si>
+  <si>
+    <t>QTD_HORA_AD_NOT_DIA</t>
+  </si>
+  <si>
+    <t>QTD_HORA_DIA</t>
+  </si>
+  <si>
+    <t>TURNO_TEMPO</t>
+  </si>
+  <si>
+    <t>IND_DESTINO</t>
+  </si>
+  <si>
+    <t>TIPO_INFO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1882,6 +2078,28 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1915,14 +2133,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1938,10 +2157,42 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3535,6 +3786,1197 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E106"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="16" t="s">
+        <v>624</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="20" t="s">
+        <v>632</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="20" t="s">
+        <v>633</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="20" t="s">
+        <v>634</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="20" t="s">
+        <v>635</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="20" t="s">
+        <v>636</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="20" t="s">
+        <v>637</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="20" t="s">
+        <v>638</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="20" t="s">
+        <v>640</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="20" t="s">
+        <v>641</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="21" t="s">
+        <v>646</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="21" t="s">
+        <v>647</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="21" t="s">
+        <v>648</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="21" t="s">
+        <v>649</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="21" t="s">
+        <v>650</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
